--- a/ActiTimeFrameWork/TestData/ActiTime.xlsx
+++ b/ActiTimeFrameWork/TestData/ActiTime.xlsx
@@ -405,7 +405,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
